--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3679656.257379568</v>
+        <v>3678821.934964183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613646</v>
+        <v>5736895.963613642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1135141.84933032</v>
+        <v>1169739.126259457</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5415326.400690163</v>
+        <v>5411274.903632507</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>62.67388458016995</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>226.2459028176506</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385439</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>224.6175354663322</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>61.6785757058918</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>105.5054544497819</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -910,10 +910,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>7.812664329323605</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>128.2026151578589</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>395.0742851230816</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>101.923196946006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.66070635948101</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905467</v>
       </c>
       <c r="W11" t="n">
         <v>350.4237561298451</v>
@@ -1533,13 +1533,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>123.0904305663795</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
@@ -1548,7 +1548,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501637</v>
+        <v>35.05648273420315</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722222</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263987</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.0358446836178</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7438795055973</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1830,7 +1830,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>37.72884675946741</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>76.07004747681803</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.382626667773</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.57223732962544</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2298,13 +2298,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>49.73842472861181</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>21.49158439058397</v>
       </c>
       <c r="W25" t="n">
         <v>246.7800261198764</v>
@@ -2544,7 +2544,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>390.3523293227054</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>384.7482751507129</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>394.5257978711151</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>401.1490924686921</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>388.9699858089389</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>292.128396941402</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>118.2572489966829</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>204.3134037554526</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>238.8188713659278</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>330.6681636597269</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>364.2516823990259</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>380.9659483955798</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>243.6546264254613</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>153.7114232567434</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>142.2286827731619</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.51156997955991</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.4822361759077</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>264.2991505221799</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>255.4758721527161</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4.413560876931758</v>
       </c>
       <c r="X28" t="n">
-        <v>19.50042337073144</v>
+        <v>220.2894080617562</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>206.8173261679657</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.8808508649716</v>
+        <v>390.4479524106874</v>
       </c>
       <c r="C29" t="n">
-        <v>388.7852277769896</v>
+        <v>390.3523293227054</v>
       </c>
       <c r="D29" t="n">
-        <v>383.1811736049971</v>
+        <v>384.7482751507129</v>
       </c>
       <c r="E29" t="n">
-        <v>392.9586963253993</v>
+        <v>394.5257978711151</v>
       </c>
       <c r="F29" t="n">
-        <v>399.5819909229763</v>
+        <v>401.1490924686921</v>
       </c>
       <c r="G29" t="n">
-        <v>387.4028842632231</v>
+        <v>388.9699858089389</v>
       </c>
       <c r="H29" t="n">
-        <v>290.5612953956862</v>
+        <v>292.128396941402</v>
       </c>
       <c r="I29" t="n">
-        <v>68.25012805322457</v>
+        <v>69.81722959894037</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>116.6901474509671</v>
+        <v>118.2572489966829</v>
       </c>
       <c r="T29" t="n">
-        <v>202.7463022097368</v>
+        <v>204.3134037554526</v>
       </c>
       <c r="U29" t="n">
-        <v>237.251769820212</v>
+        <v>238.8188713659278</v>
       </c>
       <c r="V29" t="n">
-        <v>329.1010621140111</v>
+        <v>123.2492696220139</v>
       </c>
       <c r="W29" t="n">
-        <v>362.6845808533101</v>
+        <v>364.2516823990259</v>
       </c>
       <c r="X29" t="n">
-        <v>195.4864759978876</v>
+        <v>380.9659483955798</v>
       </c>
       <c r="Y29" t="n">
-        <v>379.6891893185178</v>
+        <v>381.2562908642336</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>152.1443217110277</v>
+        <v>141.5047452701417</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6615812274461</v>
+        <v>142.2286827731619</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0635899774907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.7466976276417</v>
+        <v>147.3137991733574</v>
       </c>
       <c r="G31" t="n">
-        <v>148.339770160839</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8732636397249</v>
+        <v>132.4403651854407</v>
       </c>
       <c r="I31" t="n">
-        <v>97.94446843384411</v>
+        <v>99.51156997955991</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18187413848135</v>
+        <v>68.74897568419715</v>
       </c>
       <c r="S31" t="n">
-        <v>167.2897334360158</v>
+        <v>168.8568349817316</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>255.4758721527161</v>
       </c>
       <c r="W31" t="n">
-        <v>251.7700104760074</v>
+        <v>260.6079523890572</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.2894080617562</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.2502246222499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.8808508649716</v>
+        <v>390.4479524106873</v>
       </c>
       <c r="C32" t="n">
-        <v>388.7852277769896</v>
+        <v>390.3523293227053</v>
       </c>
       <c r="D32" t="n">
-        <v>383.1811736049971</v>
+        <v>384.7482751507128</v>
       </c>
       <c r="E32" t="n">
-        <v>392.9586963253993</v>
+        <v>394.525797871115</v>
       </c>
       <c r="F32" t="n">
-        <v>399.5819909229763</v>
+        <v>401.1490924686921</v>
       </c>
       <c r="G32" t="n">
-        <v>387.4028842632231</v>
+        <v>388.9699858089389</v>
       </c>
       <c r="H32" t="n">
-        <v>106.6489245437101</v>
+        <v>292.1283969414019</v>
       </c>
       <c r="I32" t="n">
-        <v>68.25012805322457</v>
+        <v>69.81722959894036</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>116.6901474509671</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.7463022097368</v>
+        <v>204.3134037554526</v>
       </c>
       <c r="U32" t="n">
-        <v>237.251769820212</v>
+        <v>238.8188713659278</v>
       </c>
       <c r="V32" t="n">
-        <v>329.1010621140111</v>
+        <v>330.6681636597269</v>
       </c>
       <c r="W32" t="n">
-        <v>362.6845808533101</v>
+        <v>364.2516823990259</v>
       </c>
       <c r="X32" t="n">
-        <v>379.398846849864</v>
+        <v>291.8043033545509</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.6891893185178</v>
+        <v>381.2562908642336</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>170.1516938729467</v>
       </c>
       <c r="C34" t="n">
-        <v>152.1443217110277</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.2286827731619</v>
       </c>
       <c r="E34" t="n">
-        <v>38.2350690346761</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733574</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>104.8582573535632</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8732636397249</v>
+        <v>132.4403651854407</v>
       </c>
       <c r="I34" t="n">
-        <v>97.94446843384411</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18187413848135</v>
+        <v>68.74897568419713</v>
       </c>
       <c r="S34" t="n">
-        <v>167.2897334360158</v>
+        <v>168.8568349817316</v>
       </c>
       <c r="T34" t="n">
-        <v>219.9151346301919</v>
+        <v>221.4822361759077</v>
       </c>
       <c r="U34" t="n">
-        <v>262.7320489764641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>253.9087706070003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>259.0408508433414</v>
+        <v>260.6079523890571</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>220.2894080617562</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.8808508649716</v>
+        <v>390.4479524106873</v>
       </c>
       <c r="C35" t="n">
-        <v>388.7852277769896</v>
+        <v>390.3523293227053</v>
       </c>
       <c r="D35" t="n">
-        <v>383.1811736049971</v>
+        <v>384.7482751507128</v>
       </c>
       <c r="E35" t="n">
-        <v>392.9586963253993</v>
+        <v>187.1069038334025</v>
       </c>
       <c r="F35" t="n">
-        <v>215.6696200709995</v>
+        <v>401.1490924686921</v>
       </c>
       <c r="G35" t="n">
-        <v>387.4028842632232</v>
+        <v>388.9699858089389</v>
       </c>
       <c r="H35" t="n">
-        <v>290.5612953956863</v>
+        <v>292.1283969414019</v>
       </c>
       <c r="I35" t="n">
-        <v>68.25012805322463</v>
+        <v>69.81722959894036</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.6901474509672</v>
+        <v>118.2572489966829</v>
       </c>
       <c r="T35" t="n">
-        <v>202.7463022097368</v>
+        <v>204.3134037554526</v>
       </c>
       <c r="U35" t="n">
-        <v>237.251769820212</v>
+        <v>238.8188713659278</v>
       </c>
       <c r="V35" t="n">
-        <v>329.1010621140112</v>
+        <v>330.6681636597269</v>
       </c>
       <c r="W35" t="n">
-        <v>362.6845808533102</v>
+        <v>364.2516823990259</v>
       </c>
       <c r="X35" t="n">
-        <v>379.3988468498641</v>
+        <v>380.9659483955797</v>
       </c>
       <c r="Y35" t="n">
-        <v>379.6891893185179</v>
+        <v>381.2562908642336</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>170.1516938729467</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>124.4736034795748</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.3397701608391</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.1818741384814</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.2897334360159</v>
+        <v>168.8568349817316</v>
       </c>
       <c r="T37" t="n">
-        <v>219.915134630192</v>
+        <v>221.4822361759077</v>
       </c>
       <c r="U37" t="n">
-        <v>262.7320489764642</v>
+        <v>264.2991505221798</v>
       </c>
       <c r="V37" t="n">
-        <v>253.9087706070003</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>259.0408508433414</v>
+        <v>260.6079523890571</v>
       </c>
       <c r="X37" t="n">
-        <v>65.60712803618331</v>
+        <v>220.2894080617562</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.25022462225</v>
+        <v>206.8173261679657</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.8808508649716</v>
+        <v>390.4479524106873</v>
       </c>
       <c r="C38" t="n">
-        <v>388.7852277769896</v>
+        <v>390.3523293227053</v>
       </c>
       <c r="D38" t="n">
-        <v>383.1811736049971</v>
+        <v>384.7482751507128</v>
       </c>
       <c r="E38" t="n">
-        <v>392.9586963253993</v>
+        <v>394.525797871115</v>
       </c>
       <c r="F38" t="n">
-        <v>399.5819909229764</v>
+        <v>401.1490924686921</v>
       </c>
       <c r="G38" t="n">
-        <v>203.4905134112464</v>
+        <v>388.9699858089389</v>
       </c>
       <c r="H38" t="n">
-        <v>290.5612953956863</v>
+        <v>292.1283969414019</v>
       </c>
       <c r="I38" t="n">
-        <v>68.25012805322463</v>
+        <v>69.81722959894036</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.6901474509672</v>
+        <v>118.2572489966829</v>
       </c>
       <c r="T38" t="n">
-        <v>202.7463022097368</v>
+        <v>204.3134037554526</v>
       </c>
       <c r="U38" t="n">
-        <v>237.251769820212</v>
+        <v>31.39997732821655</v>
       </c>
       <c r="V38" t="n">
-        <v>329.1010621140112</v>
+        <v>330.6681636597269</v>
       </c>
       <c r="W38" t="n">
-        <v>362.6845808533102</v>
+        <v>364.2516823990259</v>
       </c>
       <c r="X38" t="n">
-        <v>379.3988468498641</v>
+        <v>380.9659483955797</v>
       </c>
       <c r="Y38" t="n">
-        <v>379.6891893185179</v>
+        <v>381.2562908642336</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>92.85914254942439</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.7114232567434</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.2286827731619</v>
       </c>
       <c r="E40" t="n">
-        <v>142.0635899774908</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.7466976276417</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.3397701608391</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.873263639725</v>
+        <v>132.4403651854407</v>
       </c>
       <c r="I40" t="n">
-        <v>97.94446843384416</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.1818741384814</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.2897334360159</v>
+        <v>168.8568349817316</v>
       </c>
       <c r="T40" t="n">
-        <v>219.915134630192</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>262.7320489764642</v>
+        <v>264.2991505221798</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>255.4758721527161</v>
       </c>
       <c r="W40" t="n">
-        <v>259.0408508433414</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>220.2894080617562</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.138103586732207</v>
+        <v>206.8173261679657</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.8808508649716</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>388.7852277769896</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>383.1811736049971</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>392.9586963253993</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>399.5819909229763</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>387.4028842632231</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>290.5612953956862</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>68.25012805322461</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>116.6901474509672</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T41" t="n">
-        <v>202.7463022097368</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>237.251769820212</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>145.1886912620348</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>362.6845808533101</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>379.398846849864</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>379.6891893185178</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>140.6615812274461</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>142.0635899774908</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.7466976276417</v>
+        <v>88.45101027052701</v>
       </c>
       <c r="G43" t="n">
-        <v>148.3397701608391</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.873263639725</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.94446843384415</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18187413848139</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>44.78236227891747</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>253.9087706070003</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>259.0408508433414</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>218.7223065160405</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>22.92681701721074</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.5198700970952</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>82.85798684944118</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.914471946194</v>
+        <v>795.1993990705207</v>
       </c>
       <c r="C2" t="n">
-        <v>782.7898812594643</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D2" t="n">
-        <v>378.3259513525248</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,13 +4336,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M2" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M2" t="n">
-        <v>1054.568412147452</v>
-      </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
         <v>1571.411346813777</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.135651610684</v>
+        <v>858.5063531919045</v>
       </c>
     </row>
     <row r="3">
@@ -4388,16 +4388,16 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
@@ -4412,22 +4412,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790184</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.1153190952399</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V4" t="n">
-        <v>777.1526093285881</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W4" t="n">
-        <v>714.8510177064752</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X4" t="n">
-        <v>714.8510177064752</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.1153190952399</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.1296438457305</v>
+        <v>1288.795265857718</v>
       </c>
       <c r="C5" t="n">
-        <v>564.5584777348397</v>
+        <v>878.6706751709879</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>474.2067452640484</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>463.9069338213492</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>446.9169258154408</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>1482.28749656213</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X5" t="n">
-        <v>1482.28749656213</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1081.35082351022</v>
+        <v>1294.976041481803</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>52.35970185319792</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.35716349776</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>849.2637910594767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>849.2637910594767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>688.3529759277963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>688.3529759277963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1577.041056012114</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>1294.242908558238</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>1020.35716349776</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>1020.35716349776</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.35716349776</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1020.35716349776</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>269.5549845286463</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769729</v>
+        <v>263.4707978823205</v>
       </c>
       <c r="D8" t="n">
-        <v>866.5483122104374</v>
+        <v>263.0472720157851</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>252.7474605730859</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>235.7574525671775</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>231.0695725004138</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,25 +4807,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>679.7761641931357</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.2833559558259</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C10" t="n">
-        <v>352.2833559558259</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>352.2833559558259</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>786.0650117219859</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>778.3269244901869</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>539.9830623498704</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y10" t="n">
-        <v>539.9830623498704</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
         <v>430.910136076462</v>
@@ -5071,10 +5071,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>2735.433729577428</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>2735.433729577428</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L12" t="n">
-        <v>3396.521901496716</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M12" t="n">
-        <v>3396.521901496716</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N12" t="n">
-        <v>3396.521901496716</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O12" t="n">
-        <v>4100.47899204261</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>837.5213022584329</v>
+        <v>708.0510527972459</v>
       </c>
       <c r="C13" t="n">
-        <v>696.2248406548342</v>
+        <v>566.7545911936472</v>
       </c>
       <c r="D13" t="n">
-        <v>696.2248406548342</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E13" t="n">
-        <v>571.891072405966</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F13" t="n">
         <v>437.0568573512421</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1820.863624163663</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1820.863624163663</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1820.863624163663</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.451719820136</v>
+        <v>1567.862387544471</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.362885594343</v>
+        <v>1323.773553318678</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.362885594343</v>
+        <v>1074.500799662237</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.362885594343</v>
+        <v>865.9538483566055</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.4240978177925</v>
+        <v>865.9538483566055</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5317,7 +5317,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
         <v>3092.177045180321</v>
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>256.2636568806545</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0699105066985</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>479.5419440130787</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="C16" t="n">
-        <v>479.5419440130787</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="D16" t="n">
-        <v>479.5419440130787</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="E16" t="n">
-        <v>350.5077222902532</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F16" t="n">
-        <v>350.5077222902532</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504814</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5472,16 +5472,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751514</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187106</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130787</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.5419440130787</v>
+        <v>688.0888953187111</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,19 +5542,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176685</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
         <v>3092.177045180321</v>
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="M18" t="n">
-        <v>947.1447271725442</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N18" t="n">
-        <v>947.1447271725442</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O18" t="n">
-        <v>1651.101817718438</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.1149229246462</v>
+        <v>565.7279826795132</v>
       </c>
       <c r="C19" t="n">
-        <v>741.1149229246462</v>
+        <v>565.7279826795132</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029619</v>
+        <v>436.030248837108</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059662</v>
+        <v>304.9163445401124</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512422</v>
+        <v>170.0821294853885</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114704</v>
+        <v>170.0821294853885</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516119</v>
+        <v>170.0821294853885</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1338.04534048635</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1093.956506260556</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W19" t="n">
-        <v>1093.956506260556</v>
+        <v>932.1777295445045</v>
       </c>
       <c r="X19" t="n">
-        <v>1093.956506260556</v>
+        <v>723.6307782388727</v>
       </c>
       <c r="Y19" t="n">
-        <v>899.0177184840059</v>
+        <v>723.6307782388727</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5779,22 +5779,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963096</v>
@@ -5837,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3148.662647639957</v>
+        <v>634.8119536985099</v>
       </c>
       <c r="C22" t="n">
-        <v>3148.662647639957</v>
+        <v>493.5154920949112</v>
       </c>
       <c r="D22" t="n">
-        <v>3018.964913797551</v>
+        <v>363.8177582525061</v>
       </c>
       <c r="E22" t="n">
-        <v>3018.964913797551</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F22" t="n">
-        <v>3018.964913797551</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G22" t="n">
-        <v>3018.964913797551</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H22" t="n">
-        <v>2899.154369437693</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I22" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>4452.433056342526</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>4199.431819723335</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>3955.342985497542</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W22" t="n">
-        <v>3706.070231841101</v>
+        <v>987.65353703442</v>
       </c>
       <c r="X22" t="n">
-        <v>3497.523280535469</v>
+        <v>987.65353703442</v>
       </c>
       <c r="Y22" t="n">
-        <v>3302.584492758919</v>
+        <v>792.7147492578695</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,10 +6016,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035664</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3285.452615760149</v>
+        <v>716.7351475493352</v>
       </c>
       <c r="C25" t="n">
-        <v>3285.452615760149</v>
+        <v>575.4386859457366</v>
       </c>
       <c r="D25" t="n">
-        <v>3155.754881917744</v>
+        <v>445.7409521033314</v>
       </c>
       <c r="E25" t="n">
-        <v>3155.754881917744</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F25" t="n">
-        <v>3155.754881917744</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G25" t="n">
-        <v>3105.51404885854</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H25" t="n">
-        <v>2985.703504498682</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>4450.114219755819</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>4240.362391567206</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U25" t="n">
-        <v>3987.361154948015</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V25" t="n">
-        <v>3743.272320722222</v>
+        <v>1369.493640287958</v>
       </c>
       <c r="W25" t="n">
-        <v>3493.999567065781</v>
+        <v>1120.220886631517</v>
       </c>
       <c r="X25" t="n">
-        <v>3285.452615760149</v>
+        <v>911.6739353258857</v>
       </c>
       <c r="Y25" t="n">
-        <v>3285.452615760149</v>
+        <v>716.7351475493352</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2367.86377603766</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1584.933872529156</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1186.422965588636</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>781.2218620849067</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>388.3228865203218</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2762.255647159566</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.6240469015422</v>
+        <v>492.689835073921</v>
       </c>
       <c r="C28" t="n">
-        <v>745.5306744632587</v>
+        <v>337.4257711782205</v>
       </c>
       <c r="D28" t="n">
-        <v>586.0360297861687</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="E28" t="n">
-        <v>425.1252146544881</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>122.840552398419</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>292.9071854232425</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>568.3185910058887</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>873.0969527489676</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>1169.450040445804</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1677.313626950141</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1677.313626950141</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1453.594196469426</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1186.625357558133</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.756849250995</v>
+        <v>928.5689210402379</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.756849250995</v>
+        <v>924.1107787403068</v>
       </c>
       <c r="X28" t="n">
-        <v>1329.059451906822</v>
+        <v>701.5962251425733</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.323753295587</v>
+        <v>492.689835073921</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2427.305714198195</v>
+        <v>2438.386230178004</v>
       </c>
       <c r="C29" t="n">
-        <v>2034.593362908306</v>
+        <v>2044.090948033857</v>
       </c>
       <c r="D29" t="n">
-        <v>1647.541672398208</v>
+        <v>1655.4563266695</v>
       </c>
       <c r="E29" t="n">
-        <v>1250.613696311946</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F29" t="n">
-        <v>846.9955236624753</v>
+        <v>851.7443162252505</v>
       </c>
       <c r="G29" t="n">
-        <v>455.6794789521489</v>
+        <v>458.8453406606657</v>
       </c>
       <c r="H29" t="n">
-        <v>162.1832209767082</v>
+        <v>163.7661518309666</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4544.316048722082</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T29" t="n">
-        <v>4339.521804065782</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U29" t="n">
-        <v>4099.873551722133</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V29" t="n">
-        <v>3767.448236455455</v>
+        <v>3970.63054741995</v>
       </c>
       <c r="W29" t="n">
-        <v>3401.100174987465</v>
+        <v>3602.699555097702</v>
       </c>
       <c r="X29" t="n">
-        <v>3203.639088120912</v>
+        <v>3217.885465809237</v>
       </c>
       <c r="Y29" t="n">
-        <v>2820.114654465843</v>
+        <v>2832.77810129991</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3963.708275770782</v>
+        <v>762.9398213084628</v>
       </c>
       <c r="C31" t="n">
-        <v>3810.02714272934</v>
+        <v>620.0057351770065</v>
       </c>
       <c r="D31" t="n">
-        <v>3667.944737449091</v>
+        <v>476.3403990424996</v>
       </c>
       <c r="E31" t="n">
-        <v>3524.446161714252</v>
+        <v>476.3403990424996</v>
       </c>
       <c r="F31" t="n">
-        <v>3377.227275221685</v>
+        <v>327.5385816956739</v>
       </c>
       <c r="G31" t="n">
-        <v>3227.38912354407</v>
+        <v>327.5385816956739</v>
       </c>
       <c r="H31" t="n">
-        <v>3095.193907746368</v>
+        <v>193.7604350437136</v>
       </c>
       <c r="I31" t="n">
-        <v>2996.260101247535</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3027.40838648559</v>
+        <v>122.840552398419</v>
       </c>
       <c r="K31" t="n">
-        <v>3199.026450040672</v>
+        <v>292.9071854232425</v>
       </c>
       <c r="L31" t="n">
-        <v>3475.989286153577</v>
+        <v>568.3185910058887</v>
       </c>
       <c r="M31" t="n">
-        <v>3782.319078426915</v>
+        <v>873.0969527489676</v>
       </c>
       <c r="N31" t="n">
-        <v>4080.223596654009</v>
+        <v>1169.450040445804</v>
       </c>
       <c r="O31" t="n">
-        <v>4356.849942813327</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
-        <v>4579.591118895784</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="R31" t="n">
-        <v>4594.324405603381</v>
+        <v>1677.313626950141</v>
       </c>
       <c r="S31" t="n">
-        <v>4425.344876880133</v>
+        <v>1506.751167372634</v>
       </c>
       <c r="T31" t="n">
-        <v>4425.344876880133</v>
+        <v>1506.751167372634</v>
       </c>
       <c r="U31" t="n">
-        <v>4425.344876880133</v>
+        <v>1506.751167372634</v>
       </c>
       <c r="V31" t="n">
-        <v>4425.344876880133</v>
+        <v>1248.694730854739</v>
       </c>
       <c r="W31" t="n">
-        <v>4171.031734985176</v>
+        <v>985.4543749061963</v>
       </c>
       <c r="X31" t="n">
-        <v>4171.031734985176</v>
+        <v>762.9398213084628</v>
       </c>
       <c r="Y31" t="n">
-        <v>3963.708275770782</v>
+        <v>762.9398213084628</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2241.535642630542</v>
+        <v>2438.386230178003</v>
       </c>
       <c r="C32" t="n">
-        <v>1848.823291340654</v>
+        <v>2044.090948033856</v>
       </c>
       <c r="D32" t="n">
-        <v>1461.771600830556</v>
+        <v>1655.4563266695</v>
       </c>
       <c r="E32" t="n">
-        <v>1064.843624744294</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F32" t="n">
-        <v>661.2254520948227</v>
+        <v>851.7443162252503</v>
       </c>
       <c r="G32" t="n">
-        <v>269.9094073844963</v>
+        <v>458.8453406606656</v>
       </c>
       <c r="H32" t="n">
-        <v>162.1832209767082</v>
+        <v>163.7661518309666</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4544.316048722082</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4339.521804065782</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U32" t="n">
-        <v>4099.873551722133</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.448236455455</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W32" t="n">
-        <v>3401.100174987465</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X32" t="n">
-        <v>3017.869016553259</v>
+        <v>3217.885465809236</v>
       </c>
       <c r="Y32" t="n">
-        <v>2634.34458289819</v>
+        <v>2832.778101299909</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1422.708046067539</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>2126.665136613434</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>2126.665136613434</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2126.665136613434</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.6751348818075</v>
+        <v>625.4064294941816</v>
       </c>
       <c r="C34" t="n">
-        <v>362.9940018403654</v>
+        <v>625.4064294941816</v>
       </c>
       <c r="D34" t="n">
-        <v>362.9940018403654</v>
+        <v>481.7410933596747</v>
       </c>
       <c r="E34" t="n">
-        <v>324.3727199871572</v>
+        <v>481.7410933596747</v>
       </c>
       <c r="F34" t="n">
-        <v>324.3727199871572</v>
+        <v>332.9392760128489</v>
       </c>
       <c r="G34" t="n">
-        <v>324.3727199871572</v>
+        <v>227.0218443425831</v>
       </c>
       <c r="H34" t="n">
-        <v>192.1775041894552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>124.3919829286776</v>
+        <v>122.840552398419</v>
       </c>
       <c r="K34" t="n">
-        <v>296.0100464837598</v>
+        <v>292.9071854232426</v>
       </c>
       <c r="L34" t="n">
-        <v>572.9728825966647</v>
+        <v>568.3185910058888</v>
       </c>
       <c r="M34" t="n">
-        <v>879.3026748700022</v>
+        <v>873.0969527489677</v>
       </c>
       <c r="N34" t="n">
-        <v>1177.207193097097</v>
+        <v>1169.450040445804</v>
       </c>
       <c r="O34" t="n">
-        <v>1453.833539256415</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>1676.574715338872</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q34" t="n">
-        <v>1759.168480974227</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="R34" t="n">
-        <v>1691.308002046468</v>
+        <v>1677.313626950141</v>
       </c>
       <c r="S34" t="n">
-        <v>1522.328473323219</v>
+        <v>1506.751167372634</v>
       </c>
       <c r="T34" t="n">
-        <v>1300.191973696763</v>
+        <v>1283.031736891919</v>
       </c>
       <c r="U34" t="n">
-        <v>1034.806065639728</v>
+        <v>1283.031736891919</v>
       </c>
       <c r="V34" t="n">
-        <v>778.3325599760917</v>
+        <v>1283.031736891919</v>
       </c>
       <c r="W34" t="n">
-        <v>516.6751348818075</v>
+        <v>1019.791380943376</v>
       </c>
       <c r="X34" t="n">
-        <v>516.6751348818075</v>
+        <v>797.2768273456429</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.6751348818075</v>
+        <v>797.2768273456429</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2241.535642630542</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C35" t="n">
-        <v>1848.823291340653</v>
+        <v>1834.576913652329</v>
       </c>
       <c r="D35" t="n">
-        <v>1461.771600830555</v>
+        <v>1445.942292287972</v>
       </c>
       <c r="E35" t="n">
-        <v>1064.843624744293</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F35" t="n">
-        <v>846.9955236624755</v>
+        <v>851.7443162252503</v>
       </c>
       <c r="G35" t="n">
-        <v>455.679478952149</v>
+        <v>458.8453406606656</v>
       </c>
       <c r="H35" t="n">
-        <v>162.1832209767083</v>
+        <v>163.7661518309666</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4544.316048722082</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T35" t="n">
-        <v>4339.521804065782</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U35" t="n">
-        <v>4099.873551722133</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.448236455455</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W35" t="n">
-        <v>3401.100174987465</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X35" t="n">
-        <v>3017.869016553259</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y35" t="n">
-        <v>2634.34458289819</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>243.081849368238</v>
+        <v>218.9746102962539</v>
       </c>
       <c r="C37" t="n">
-        <v>243.081849368238</v>
+        <v>218.9746102962539</v>
       </c>
       <c r="D37" t="n">
-        <v>243.081849368238</v>
+        <v>218.9746102962539</v>
       </c>
       <c r="E37" t="n">
-        <v>243.081849368238</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>243.081849368238</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>124.3919829286775</v>
+        <v>122.840552398419</v>
       </c>
       <c r="K37" t="n">
-        <v>296.0100464837597</v>
+        <v>292.9071854232426</v>
       </c>
       <c r="L37" t="n">
-        <v>572.9728825966645</v>
+        <v>568.3185910058888</v>
       </c>
       <c r="M37" t="n">
-        <v>879.302674870002</v>
+        <v>873.0969527489677</v>
       </c>
       <c r="N37" t="n">
-        <v>1177.207193097096</v>
+        <v>1169.450040445804</v>
       </c>
       <c r="O37" t="n">
-        <v>1453.833539256415</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>1676.574715338872</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q37" t="n">
-        <v>1759.168480974227</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="R37" t="n">
-        <v>1691.308002046468</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="S37" t="n">
-        <v>1522.328473323219</v>
+        <v>1576.194577154651</v>
       </c>
       <c r="T37" t="n">
-        <v>1300.191973696763</v>
+        <v>1352.475146673936</v>
       </c>
       <c r="U37" t="n">
-        <v>1034.806065639728</v>
+        <v>1085.506307762644</v>
       </c>
       <c r="V37" t="n">
-        <v>778.3325599760914</v>
+        <v>1085.506307762644</v>
       </c>
       <c r="W37" t="n">
-        <v>516.675134881807</v>
+        <v>822.2659518141011</v>
       </c>
       <c r="X37" t="n">
-        <v>450.405308582632</v>
+        <v>599.7513982163675</v>
       </c>
       <c r="Y37" t="n">
-        <v>243.081849368238</v>
+        <v>390.8450081477152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2241.535642630542</v>
+        <v>2438.386230178003</v>
       </c>
       <c r="C38" t="n">
-        <v>1848.823291340653</v>
+        <v>2044.090948033856</v>
       </c>
       <c r="D38" t="n">
-        <v>1461.771600830555</v>
+        <v>1655.4563266695</v>
       </c>
       <c r="E38" t="n">
-        <v>1064.843624744293</v>
+        <v>1256.94541972898</v>
       </c>
       <c r="F38" t="n">
-        <v>661.2254520948221</v>
+        <v>851.7443162252503</v>
       </c>
       <c r="G38" t="n">
-        <v>455.679478952149</v>
+        <v>458.8453406606656</v>
       </c>
       <c r="H38" t="n">
-        <v>162.1832209767083</v>
+        <v>163.7661518309666</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4544.316048722082</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T38" t="n">
-        <v>4339.521804065782</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U38" t="n">
-        <v>4099.873551722133</v>
+        <v>4304.638793540885</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.448236455455</v>
+        <v>3970.630547419949</v>
       </c>
       <c r="W38" t="n">
-        <v>3401.100174987465</v>
+        <v>3602.699555097701</v>
       </c>
       <c r="X38" t="n">
-        <v>3017.869016553259</v>
+        <v>3217.885465809236</v>
       </c>
       <c r="Y38" t="n">
-        <v>2634.34458289819</v>
+        <v>2832.778101299909</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>764.928333892179</v>
+        <v>525.9512443727905</v>
       </c>
       <c r="C40" t="n">
-        <v>764.928333892179</v>
+        <v>370.68718047709</v>
       </c>
       <c r="D40" t="n">
-        <v>764.928333892179</v>
+        <v>227.0218443425831</v>
       </c>
       <c r="E40" t="n">
-        <v>621.4297581573398</v>
+        <v>227.0218443425831</v>
       </c>
       <c r="F40" t="n">
-        <v>474.2108716647725</v>
+        <v>227.0218443425831</v>
       </c>
       <c r="G40" t="n">
-        <v>324.3727199871573</v>
+        <v>227.0218443425831</v>
       </c>
       <c r="H40" t="n">
-        <v>192.1775041894553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>124.3919829286775</v>
+        <v>122.840552398419</v>
       </c>
       <c r="K40" t="n">
-        <v>296.0100464837597</v>
+        <v>292.9071854232426</v>
       </c>
       <c r="L40" t="n">
-        <v>572.9728825966645</v>
+        <v>568.3185910058888</v>
       </c>
       <c r="M40" t="n">
-        <v>879.302674870002</v>
+        <v>873.0969527489677</v>
       </c>
       <c r="N40" t="n">
-        <v>1177.207193097096</v>
+        <v>1169.450040445804</v>
       </c>
       <c r="O40" t="n">
-        <v>1453.833539256415</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
-        <v>1676.574715338872</v>
+        <v>1665.714701627061</v>
       </c>
       <c r="Q40" t="n">
-        <v>1759.168480974227</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="R40" t="n">
-        <v>1691.308002046468</v>
+        <v>1746.757036732158</v>
       </c>
       <c r="S40" t="n">
-        <v>1522.328473323219</v>
+        <v>1576.194577154651</v>
       </c>
       <c r="T40" t="n">
-        <v>1300.191973696763</v>
+        <v>1576.194577154651</v>
       </c>
       <c r="U40" t="n">
-        <v>1034.806065639728</v>
+        <v>1309.225738243359</v>
       </c>
       <c r="V40" t="n">
-        <v>1034.806065639728</v>
+        <v>1051.169301725464</v>
       </c>
       <c r="W40" t="n">
-        <v>773.1486405454439</v>
+        <v>1051.169301725464</v>
       </c>
       <c r="X40" t="n">
-        <v>773.1486405454439</v>
+        <v>828.65474812773</v>
       </c>
       <c r="Y40" t="n">
-        <v>764.928333892179</v>
+        <v>619.7483580590778</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2427.305714198195</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C41" t="n">
-        <v>2034.593362908306</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>1647.541672398208</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>1250.613696311946</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>846.9955236624753</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>455.6794789521489</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>162.1832209767083</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4544.316048722082</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T41" t="n">
-        <v>4339.521804065782</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U41" t="n">
-        <v>4099.873551722133</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V41" t="n">
-        <v>3953.218308023108</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W41" t="n">
-        <v>3586.870246555118</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X41" t="n">
-        <v>3203.639088120912</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y41" t="n">
-        <v>2820.114654465843</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>844.5103911440685</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>844.5103911440685</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N42" t="n">
-        <v>844.5103911440685</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
         <v>2110.173374178493</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>907.0107391724276</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="C43" t="n">
-        <v>907.0107391724276</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="D43" t="n">
-        <v>764.928333892179</v>
+        <v>298.9341984050108</v>
       </c>
       <c r="E43" t="n">
-        <v>621.4297581573398</v>
+        <v>298.9341984050108</v>
       </c>
       <c r="F43" t="n">
-        <v>474.2108716647725</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>324.3727199871573</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>192.1775041894553</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>124.3919829286775</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>296.0100464837597</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>572.9728825966645</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>879.302674870002</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1177.207193097096</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1453.833539256415</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1676.574715338872</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1759.168480974227</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1691.308002046468</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1691.308002046468</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1691.308002046468</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1646.073292673824</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>1389.599787010187</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.942361915903</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X43" t="n">
-        <v>907.0107391724276</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y43" t="n">
-        <v>907.0107391724276</v>
+        <v>646.1285494761452</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2485.998028320643</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C44" t="n">
-        <v>2075.873437633913</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1671.409507726974</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1257.069292243871</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>836.0388801975582</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>427.3105960903904</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>116.4020987181084</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W44" t="n">
-        <v>3697.79927886809</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X44" t="n">
-        <v>3297.155881037042</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y44" t="n">
-        <v>2896.219207985132</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1627.989961721529</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.7368574189954</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1538.947658099916</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1352.555889979827</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1113.007150956529</v>
       </c>
       <c r="U46" t="n">
-        <v>1350.978107866783</v>
+        <v>830.2090035026529</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.978107866783</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="W46" t="n">
-        <v>1071.908443375657</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>1071.908443375657</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>1071.908443375657</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7562197346342</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8236,7 +8236,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>62.07087134908675</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
@@ -8309,16 +8309,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>94.8193679181835</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>172.3167548573615</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>266.54231935717</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8789,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>220.4924082290918</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>373.8003899018191</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9260,13 +9260,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>547.8263782580404</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9485,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10451,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>72.1999535778186</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>354.5594098594824</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>544.8054309767314</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -11399,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.712334687646234</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.8645666808132</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>13.36491182036333</v>
       </c>
       <c r="E16" t="n">
-        <v>2.058885748428523</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>90.67190974451373</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.613596233561083</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.941140935992934</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>66.23052792440029</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>86.3405207087622</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>220.1563614929513</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>69.81722959894037</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>137.6016644387723</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>170.1516938729467</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>143.6306915232065</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.3137991733574</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.9068717065548</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>132.4403651854407</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>168.8568349817316</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>256.1943915121254</v>
       </c>
       <c r="X28" t="n">
-        <v>216.460000148182</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>207.418894037713</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>183.9123708519764</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.584592327231</v>
+        <v>170.1516938729467</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>12.20667798660173</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>143.6306915232065</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.9068717065548</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.9151346301919</v>
+        <v>221.4822361759077</v>
       </c>
       <c r="U31" t="n">
-        <v>262.7320489764641</v>
+        <v>264.2991505221799</v>
       </c>
       <c r="V31" t="n">
-        <v>253.9087706070003</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>7.270840367334017</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>218.7223065160404</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.8173261679657</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>183.9123708519761</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2572489966829</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>89.16164504102881</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.584592327231</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>153.7114232567434</v>
       </c>
       <c r="D34" t="n">
-        <v>140.6615812274461</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>103.8285209428146</v>
+        <v>143.6306915232065</v>
       </c>
       <c r="F34" t="n">
-        <v>145.7466976276417</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>148.339770160839</v>
+        <v>45.04861435299162</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>99.51156997955989</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.2991505221798</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>255.4758721527161</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>218.7223065160404</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.2502246222499</v>
+        <v>206.8173261679657</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>207.4188940377125</v>
       </c>
       <c r="F35" t="n">
-        <v>183.9123708519768</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.584592327231</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>152.1443217110277</v>
+        <v>153.7114232567434</v>
       </c>
       <c r="D37" t="n">
-        <v>140.6615812274461</v>
+        <v>142.2286827731619</v>
       </c>
       <c r="E37" t="n">
-        <v>142.0635899774908</v>
+        <v>19.15708804363172</v>
       </c>
       <c r="F37" t="n">
-        <v>145.7466976276417</v>
+        <v>147.3137991733574</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.9068717065548</v>
       </c>
       <c r="H37" t="n">
-        <v>130.873263639725</v>
+        <v>132.4403651854407</v>
       </c>
       <c r="I37" t="n">
-        <v>97.94446843384416</v>
+        <v>99.51156997955989</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>68.74897568419713</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>255.4758721527161</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1151784798572</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>183.9123708519768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>207.4188940377112</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.584592327231</v>
+        <v>77.29255132352235</v>
       </c>
       <c r="C40" t="n">
-        <v>152.1443217110277</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>140.6615812274461</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.6306915232065</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733574</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.9068717065548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>99.51156997955989</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.74897568419713</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759077</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>253.9087706070003</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>260.6079523890571</v>
       </c>
       <c r="X40" t="n">
-        <v>218.7223065160405</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.1121210355178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>183.9123708519764</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.584592327231</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1443217110277</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>74.53380435998764</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>167.2897334360159</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>219.915134630192</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>217.9496866975466</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>205.25022462225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.56142803888683</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.30283923300874</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.562004291913169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473548.3142769432</v>
+        <v>473548.3142769433</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473548.3142769431</v>
+        <v>473548.3142769432</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473548.3142769431</v>
+        <v>473548.3142769432</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473548.3142769432</v>
+        <v>473548.3142769433</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434473.0013026405</v>
+        <v>455231.3674601227</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>457307.2040758709</v>
+        <v>455231.3674601226</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457307.204075871</v>
+        <v>455231.3674601226</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457307.2040758709</v>
+        <v>455231.3674601226</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457307.2040758709</v>
+        <v>455231.3674601227</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457307.2040758709</v>
+        <v>434473.0013026405</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434473.0013026405</v>
+        <v>434473.0013026404</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>651529.5721298283</v>
       </c>
       <c r="C2" t="n">
-        <v>651529.5721298285</v>
+        <v>651529.5721298282</v>
       </c>
       <c r="D2" t="n">
         <v>651529.5721298283</v>
       </c>
       <c r="E2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="F2" t="n">
-        <v>631397.7523692576</v>
+        <v>631397.7523692574</v>
       </c>
       <c r="G2" t="n">
         <v>631397.7523692575</v>
@@ -26334,28 +26334,28 @@
         <v>631397.7523692573</v>
       </c>
       <c r="I2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692576</v>
       </c>
       <c r="J2" t="n">
+        <v>606975.1566134974</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606975.1566134973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606975.1566134973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606975.1566134971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606975.1566134975</v>
+      </c>
+      <c r="O2" t="n">
         <v>579297.3350701876</v>
       </c>
-      <c r="K2" t="n">
-        <v>609742.9387678275</v>
-      </c>
-      <c r="L2" t="n">
-        <v>609742.9387678277</v>
-      </c>
-      <c r="M2" t="n">
-        <v>609742.9387678277</v>
-      </c>
-      <c r="N2" t="n">
-        <v>609742.9387678276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>609742.9387678273</v>
-      </c>
       <c r="P2" t="n">
-        <v>579297.3350701879</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="3">
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>149131.6131716207</v>
       </c>
       <c r="K3" t="n">
-        <v>13790.49360229836</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>30548.15734701354</v>
+        <v>30548.15734701356</v>
       </c>
       <c r="F4" t="n">
-        <v>30548.15734701351</v>
+        <v>30548.15734701357</v>
       </c>
       <c r="G4" t="n">
-        <v>30548.15734701351</v>
+        <v>30548.15734701357</v>
       </c>
       <c r="H4" t="n">
         <v>30548.15734701357</v>
@@ -26441,25 +26441,25 @@
         <v>30548.15734701356</v>
       </c>
       <c r="J4" t="n">
+        <v>16574.40558728405</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16574.40558728405</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16574.40558728406</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16574.40558728406</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16574.40558728406</v>
+      </c>
+      <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="K4" t="n">
-        <v>18158.03335299806</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18158.03335299806</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18158.03335299801</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18158.03335299801</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18158.03335299802</v>
-      </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
+        <v>72182.65684334107</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72182.65684334107</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72182.65684334107</v>
+      </c>
+      <c r="M5" t="n">
+        <v>72182.65684334107</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72182.65684334107</v>
+      </c>
+      <c r="O5" t="n">
         <v>70865.21024487332</v>
-      </c>
-      <c r="K5" t="n">
-        <v>72314.40150318785</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72314.40150318785</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72314.40150318785</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72314.40150318785</v>
-      </c>
-      <c r="O5" t="n">
-        <v>72314.40150318785</v>
       </c>
       <c r="P5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256086.6259500196</v>
+        <v>256086.6259500195</v>
       </c>
       <c r="C6" t="n">
-        <v>431042.1358431339</v>
+        <v>431042.1358431335</v>
       </c>
       <c r="D6" t="n">
         <v>431042.1358431336</v>
       </c>
       <c r="E6" t="n">
-        <v>311775.5219648653</v>
+        <v>311725.1924154641</v>
       </c>
       <c r="F6" t="n">
-        <v>527504.4382453794</v>
+        <v>527454.1086959776</v>
       </c>
       <c r="G6" t="n">
-        <v>527504.4382453792</v>
+        <v>527454.1086959777</v>
       </c>
       <c r="H6" t="n">
-        <v>527504.4382453789</v>
+        <v>527454.1086959775</v>
       </c>
       <c r="I6" t="n">
-        <v>527504.4382453789</v>
+        <v>527454.1086959778</v>
       </c>
       <c r="J6" t="n">
-        <v>371099.1960892747</v>
+        <v>368975.0949724607</v>
       </c>
       <c r="K6" t="n">
-        <v>505480.0103093432</v>
+        <v>518106.7081440814</v>
       </c>
       <c r="L6" t="n">
-        <v>519270.5039116418</v>
+        <v>518106.7081440814</v>
       </c>
       <c r="M6" t="n">
-        <v>358912.0534109591</v>
+        <v>357748.2576433984</v>
       </c>
       <c r="N6" t="n">
-        <v>519270.5039116418</v>
+        <v>518106.7081440816</v>
       </c>
       <c r="O6" t="n">
-        <v>519270.5039116415</v>
+        <v>507513.4163025205</v>
       </c>
       <c r="P6" t="n">
-        <v>507693.99689517</v>
+        <v>507513.4163025204</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="K2" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="L2" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="M2" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="N2" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="O2" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="K2" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="P2" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>343.4450832876746</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>183.9509105106217</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27539,13 +27539,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>55.35263051300484</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>214.6003921403226</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>300.5178903300807</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>396.8283369367725</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,19 +27776,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>37.37527200585311</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>15.12252820519069</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>205.8762154525532</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6182614867333</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633798</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.6710154571572</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="C29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="D29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="F29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="T29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="U29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="V29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="W29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="X29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="L31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="M31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="N31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="O31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="P31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="R31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="S31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="T31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="U31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="V31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="W31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="X31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23811700287299</v>
+        <v>15.6710154571572</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="K34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="L34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="M34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="N34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="O34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="P34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="R34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="S34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23811700287299</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="L37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="M37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="N37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="O37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="P37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="R37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="S37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="L40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="M40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="N40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="O40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="P40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="R40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="S40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="T40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23811700287294</v>
+        <v>15.67101545715721</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.23811700287295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>500.9700927793178</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>338.0047407346341</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.70163254908674</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
@@ -35029,16 +35029,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>120.9475160573615</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>164.6666254444764</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>493.5667432552367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N23" t="n">
         <v>760.7889056955737</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900053</v>
+        <v>29.89581283615773</v>
       </c>
       <c r="K28" t="n">
-        <v>156.1134623456949</v>
+        <v>171.7844778028521</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5223235152127</v>
+        <v>278.1933389723699</v>
       </c>
       <c r="M28" t="n">
-        <v>292.1859155964578</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N28" t="n">
-        <v>283.67553777197</v>
+        <v>299.3465532291272</v>
       </c>
       <c r="O28" t="n">
-        <v>262.1824346732062</v>
+        <v>277.8534501303634</v>
       </c>
       <c r="P28" t="n">
-        <v>207.7529699491034</v>
+        <v>223.4239854062606</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>81.86094455060248</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.46291438187352</v>
+        <v>29.89581283615773</v>
       </c>
       <c r="K31" t="n">
-        <v>173.3515793485679</v>
+        <v>171.7844778028521</v>
       </c>
       <c r="L31" t="n">
-        <v>279.7604405180857</v>
+        <v>278.1933389723699</v>
       </c>
       <c r="M31" t="n">
-        <v>309.4240325993308</v>
+        <v>307.856931053615</v>
       </c>
       <c r="N31" t="n">
-        <v>300.9136547748429</v>
+        <v>299.3465532291272</v>
       </c>
       <c r="O31" t="n">
-        <v>279.4205516760792</v>
+        <v>277.8534501303634</v>
       </c>
       <c r="P31" t="n">
-        <v>224.9910869519764</v>
+        <v>223.4239854062606</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.42804609631828</v>
+        <v>81.86094455060248</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.19975447241319</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.46291438187352</v>
+        <v>29.89581283615774</v>
       </c>
       <c r="K34" t="n">
-        <v>173.3515793485679</v>
+        <v>171.7844778028521</v>
       </c>
       <c r="L34" t="n">
-        <v>279.7604405180857</v>
+        <v>278.1933389723699</v>
       </c>
       <c r="M34" t="n">
-        <v>309.4240325993308</v>
+        <v>307.8569310536151</v>
       </c>
       <c r="N34" t="n">
-        <v>300.9136547748429</v>
+        <v>299.3465532291272</v>
       </c>
       <c r="O34" t="n">
-        <v>279.4205516760792</v>
+        <v>277.8534501303635</v>
       </c>
       <c r="P34" t="n">
-        <v>224.9910869519764</v>
+        <v>223.4239854062606</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.42804609631828</v>
+        <v>81.8609445506025</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.46291438187346</v>
+        <v>29.89581283615774</v>
       </c>
       <c r="K37" t="n">
-        <v>173.3515793485679</v>
+        <v>171.7844778028521</v>
       </c>
       <c r="L37" t="n">
-        <v>279.7604405180856</v>
+        <v>278.1933389723699</v>
       </c>
       <c r="M37" t="n">
-        <v>309.4240325993308</v>
+        <v>307.8569310536151</v>
       </c>
       <c r="N37" t="n">
-        <v>300.9136547748429</v>
+        <v>299.3465532291272</v>
       </c>
       <c r="O37" t="n">
-        <v>279.4205516760791</v>
+        <v>277.8534501303635</v>
       </c>
       <c r="P37" t="n">
-        <v>224.9910869519763</v>
+        <v>223.4239854062606</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.42804609631823</v>
+        <v>81.8609445506025</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.46291438187346</v>
+        <v>29.89581283615774</v>
       </c>
       <c r="K40" t="n">
-        <v>173.3515793485679</v>
+        <v>171.7844778028521</v>
       </c>
       <c r="L40" t="n">
-        <v>279.7604405180856</v>
+        <v>278.1933389723699</v>
       </c>
       <c r="M40" t="n">
-        <v>309.4240325993308</v>
+        <v>307.8569310536151</v>
       </c>
       <c r="N40" t="n">
-        <v>300.9136547748429</v>
+        <v>299.3465532291272</v>
       </c>
       <c r="O40" t="n">
-        <v>279.4205516760791</v>
+        <v>277.8534501303635</v>
       </c>
       <c r="P40" t="n">
-        <v>224.9910869519763</v>
+        <v>223.4239854062606</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.42804609631823</v>
+        <v>81.8609445506025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>298.4448860486334</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.46291438187348</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>173.3515793485679</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>279.7604405180857</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>309.4240325993308</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>300.9136547748429</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>279.4205516760792</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>224.9910869519763</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.42804609631824</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>487.0539519767314</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
